--- a/files/xl/entropy_example.xlsx
+++ b/files/xl/entropy_example.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\Google Drive\Docs\fastai\course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\git\course-v3\files\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7F9BE9-0128-4872-B009-67680E9E5F00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="21570" windowHeight="12900"/>
+    <workbookView xWindow="850" yWindow="-110" windowWidth="31660" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="softmax" sheetId="2" r:id="rId1"/>
     <sheet name="entropy" sheetId="1" r:id="rId2"/>
+    <sheet name="log_entropy" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>isCat</t>
   </si>
@@ -55,12 +63,39 @@
   </si>
   <si>
     <t>building</t>
+  </si>
+  <si>
+    <t>isDog</t>
+  </si>
+  <si>
+    <t>logPredCat</t>
+  </si>
+  <si>
+    <t>logPredDog</t>
+  </si>
+  <si>
+    <t>NLL</t>
+  </si>
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>idxPred</t>
+  </si>
+  <si>
+    <t>Image 1</t>
+  </si>
+  <si>
+    <t>Image 2</t>
+  </si>
+  <si>
+    <t>binary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,7 +141,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -415,121 +461,386 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.1789294543326676E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <f>EXP(B3)</f>
+        <v>1.0220284148175773</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3/$C$8</f>
+        <v>8.0486812158452201E-2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-1.4210496434287527</v>
+      </c>
+      <c r="H3" s="2">
+        <f>EXP(G3)</f>
+        <v>0.24146043647535656</v>
+      </c>
+      <c r="I3" s="2">
+        <f>H3/$H$8</f>
+        <v>8.0486812158452187E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <f>C3/(1+C3)</f>
+        <v>0.50544710812571958</v>
+      </c>
+      <c r="L3" s="2">
+        <f>H3/(1+H3)</f>
+        <v>0.1944970853528683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-2.4880559194860128</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C7" si="0">EXP(B4)</f>
+        <v>8.3071307004184067E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D7" si="1">C4/$C$8</f>
+        <v>6.5420340429539741E-3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-3.9308948574580924</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H7" si="2">EXP(G4)</f>
+        <v>1.9626102128861917E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I7" si="3">H4/$H$8</f>
+        <v>6.5420340429539724E-3</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K7" si="4">C4/(1+C4)</f>
+        <v>7.6699757870940591E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L7" si="5">H4/(1+H4)</f>
+        <v>1.9248332391535363E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-1.7505557283129267</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17367739917869809</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3677447712018329E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-3.1933946662850063</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1032343136054979E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3677447712018327E-2</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.14797711815890122</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="5"/>
+        <v>3.941505122928958E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.0704092459877179</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9280669836380966</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.62435136718346718</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.62757030801563851</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8730541015504016</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.62435136718346718</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.88799367188523148</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="5"/>
+        <v>0.65193833298845139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.2502573466234175</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4912413010243966</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27494233890310826</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-0.19258159134866187</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.82482701670932479</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.27494233890310826</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.77734440592806431</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.45200285241102983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <f>SUM(C3:C7)</f>
+        <v>12.698085405662953</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(D3:D7)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <f>SUM(H3:H7)</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <f>SUM(I3:I7)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F3:F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <f ca="1">RAND()*10-5</f>
-        <v>-2.0756151098951037</v>
-      </c>
-      <c r="C2" s="2">
-        <f ca="1">EXP(B2)</f>
-        <v>0.12547922024015928</v>
-      </c>
-      <c r="D2" s="2">
-        <f ca="1">C2/$C$7</f>
-        <v>1.3594323773306157E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <f t="shared" ref="B3:B6" ca="1" si="0">RAND()*10-5</f>
-        <v>-0.11171473940962784</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C6" ca="1" si="1">EXP(B3)</f>
-        <v>0.89429932947233159</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D6" ca="1" si="2">C3/$C$7</f>
-        <v>9.6887712657354658E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.269946142602584</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.5606607892681761</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.38575929563145001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.95184790801681629</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.38602702152495172</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.1821875413405561E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4501606231001265</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.2637993248350918</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.4619367925244835</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
-        <f ca="1">SUM(C2:C6)</f>
-        <v>9.2302656853407115</v>
-      </c>
-      <c r="D7" s="2">
-        <f ca="1">SUM(D2:D6)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <f>-B2*LOG(C2)-(1-B2)*LOG(1-C2)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="E2">
+        <f>-IF(B2=1,LOG(C2),LOG(1-C2))</f>
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.98</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">-B3*LOG(C3)-(1-B3)*LOG(1-C3)</f>
+        <v>8.7739243075051505E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="1">-IF(B3=1,LOG(C3),LOG(1-C3))</f>
+        <v>8.7739243075051505E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.9</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.9</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4.5757490560675115E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4.5757490560675115E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <f>25000*128*4/1000</f>
+        <v>12800</v>
       </c>
     </row>
   </sheetData>
@@ -537,108 +848,203 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E9"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE7DFA9-1825-4B16-8AE5-5E3EEB44099A}">
+  <dimension ref="B1:I6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="6" width="10.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
+        <f>1-B2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="D2">
-        <f>-B2*LOG(C2)-(1-B2)*LOG(1-C2)</f>
+      <c r="E2" s="2">
+        <f>LOG(D2)</f>
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="F2" s="2">
+        <f>LOG(1-D2)</f>
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="G2" s="2">
+        <f>-B2*E2-C2*F2</f>
         <v>0.3010299956639812</v>
       </c>
-      <c r="E2">
-        <f>-IF(B2=1,LOG(C2),LOG(1-C2))</f>
-        <v>0.3010299956639812</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H2">
+        <f>MATCH(1,B2:C2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <f ca="1">OFFSET(D2,0,H2)</f>
+        <v>-0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C6" si="0">1-B3</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0.98</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">-B3*LOG(C3)-(1-B3)*LOG(1-C3)</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E6" si="1">LOG(D3)</f>
+        <v>-8.7739243075051505E-3</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F6" si="2">LOG(1-D3)</f>
+        <v>-1.6989700043360185</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G6" si="3">-B3*E3-C3*F3</f>
         <v>8.7739243075051505E-3</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E6" si="1">-IF(B3=1,LOG(C3),LOG(1-C3))</f>
-        <v>8.7739243075051505E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="4">MATCH(1,B3:C3)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I6" ca="1" si="5">OFFSET(D3,0,H3)</f>
+        <v>-8.7739243075051505E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+        <v>-4.5757490560675115E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.3010299956639812</v>
-      </c>
-      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>0.3010299956639812</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.9</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
+        <v>-4.5757490560675115E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="3"/>
         <v>4.5757490560675115E-2</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>4.5757490560675115E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C9">
-        <f>25000*128*4/1000</f>
-        <v>12800</v>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>-4.5757490560675115E-2</v>
       </c>
     </row>
   </sheetData>
